--- a/room_attribution/resultats/demi_journee_3/statistiques.xlsx
+++ b/room_attribution/resultats/demi_journee_3/statistiques.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7086</t>
+          <t>6971</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>213.28s</t>
+          <t>1008.02s</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1137 (97.9%)</t>
+          <t>1160 (99.9%)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>24 (2.1%)</t>
+          <t>1 (0.1%)</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4112</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>532</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.54</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>225</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -724,7 +724,7 @@
         <v>204</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -742,7 +742,7 @@
         <v>209</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -814,7 +814,7 @@
         <v>247</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>

--- a/room_attribution/resultats/demi_journee_3/statistiques.xlsx
+++ b/room_attribution/resultats/demi_journee_3/statistiques.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6971</t>
+          <t>7001</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1008.02s</t>
+          <t>333.02s</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1160 (99.9%)</t>
+          <t>1154 (99.4%)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1 (0.1%)</t>
+          <t>7 (0.6%)</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4112</t>
+          <t>4117</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>527</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.55</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>225</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -724,7 +724,7 @@
         <v>204</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>204</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -778,7 +778,7 @@
         <v>211</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +814,7 @@
         <v>247</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>225</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -976,7 +976,7 @@
         <v>207</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>209</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1030,7 +1030,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -1066,7 +1066,7 @@
         <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1084,7 +1084,7 @@
         <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1102,7 +1102,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
